--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_230.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_230.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_230.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_230.xlsx
@@ -3932,7 +3932,7 @@
         <v>64487</v>
       </c>
       <c r="B2" t="n">
-        <v>142774</v>
+        <v>173985</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -4003,7 +4003,7 @@
         <v>64487</v>
       </c>
       <c r="B3" t="n">
-        <v>142775</v>
+        <v>173986</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -4068,7 +4068,7 @@
         <v>64487</v>
       </c>
       <c r="B4" t="n">
-        <v>142776</v>
+        <v>173987</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -4198,7 +4198,7 @@
         <v>64487</v>
       </c>
       <c r="B6" t="n">
-        <v>142777</v>
+        <v>173988</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -4263,7 +4263,7 @@
         <v>64487</v>
       </c>
       <c r="B7" t="n">
-        <v>142778</v>
+        <v>173989</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -4334,7 +4334,7 @@
         <v>64487</v>
       </c>
       <c r="B8" t="n">
-        <v>142779</v>
+        <v>173990</v>
       </c>
       <c r="C8" t="s">
         <v>94</v>
@@ -4476,7 +4476,7 @@
         <v>64487</v>
       </c>
       <c r="B10" t="n">
-        <v>142780</v>
+        <v>173991</v>
       </c>
       <c r="C10" t="s">
         <v>113</v>
@@ -4543,7 +4543,7 @@
         <v>64487</v>
       </c>
       <c r="B11" t="n">
-        <v>142781</v>
+        <v>173992</v>
       </c>
       <c r="C11" t="s">
         <v>122</v>
@@ -4614,7 +4614,7 @@
         <v>64487</v>
       </c>
       <c r="B12" t="n">
-        <v>142782</v>
+        <v>173993</v>
       </c>
       <c r="C12" t="s">
         <v>130</v>
@@ -4744,7 +4744,7 @@
         <v>64487</v>
       </c>
       <c r="B14" t="n">
-        <v>142783</v>
+        <v>173994</v>
       </c>
       <c r="C14" t="s">
         <v>145</v>
@@ -4809,7 +4809,7 @@
         <v>64487</v>
       </c>
       <c r="B15" t="n">
-        <v>142784</v>
+        <v>173995</v>
       </c>
       <c r="C15" t="s">
         <v>154</v>
@@ -4878,7 +4878,7 @@
         <v>64487</v>
       </c>
       <c r="B16" t="n">
-        <v>142785</v>
+        <v>173996</v>
       </c>
       <c r="C16" t="s">
         <v>160</v>
@@ -4947,7 +4947,7 @@
         <v>64487</v>
       </c>
       <c r="B17" t="n">
-        <v>142786</v>
+        <v>173997</v>
       </c>
       <c r="C17" t="s">
         <v>168</v>
@@ -5073,7 +5073,7 @@
         <v>64487</v>
       </c>
       <c r="B19" t="n">
-        <v>142787</v>
+        <v>173998</v>
       </c>
       <c r="C19" t="s">
         <v>184</v>
@@ -5138,7 +5138,7 @@
         <v>64487</v>
       </c>
       <c r="B20" t="n">
-        <v>142788</v>
+        <v>173999</v>
       </c>
       <c r="C20" t="s">
         <v>193</v>
@@ -5203,7 +5203,7 @@
         <v>64487</v>
       </c>
       <c r="B21" t="n">
-        <v>142789</v>
+        <v>174000</v>
       </c>
       <c r="C21" t="s">
         <v>202</v>
@@ -5268,7 +5268,7 @@
         <v>64487</v>
       </c>
       <c r="B22" t="n">
-        <v>142790</v>
+        <v>174001</v>
       </c>
       <c r="C22" t="s">
         <v>211</v>
@@ -5333,7 +5333,7 @@
         <v>64487</v>
       </c>
       <c r="B23" t="n">
-        <v>142791</v>
+        <v>174002</v>
       </c>
       <c r="C23" t="s">
         <v>220</v>
@@ -5402,7 +5402,7 @@
         <v>64487</v>
       </c>
       <c r="B24" t="n">
-        <v>142792</v>
+        <v>174003</v>
       </c>
       <c r="C24" t="s">
         <v>229</v>
@@ -5601,7 +5601,7 @@
         <v>64487</v>
       </c>
       <c r="B27" t="n">
-        <v>142793</v>
+        <v>174004</v>
       </c>
       <c r="C27" t="s">
         <v>256</v>
@@ -5666,7 +5666,7 @@
         <v>64487</v>
       </c>
       <c r="B28" t="n">
-        <v>142794</v>
+        <v>174005</v>
       </c>
       <c r="C28" t="s">
         <v>265</v>
@@ -5731,7 +5731,7 @@
         <v>64487</v>
       </c>
       <c r="B29" t="n">
-        <v>142795</v>
+        <v>174006</v>
       </c>
       <c r="C29" t="s">
         <v>274</v>
@@ -5800,7 +5800,7 @@
         <v>64487</v>
       </c>
       <c r="B30" t="n">
-        <v>142796</v>
+        <v>174007</v>
       </c>
       <c r="C30" t="s">
         <v>283</v>
@@ -5871,7 +5871,7 @@
         <v>64487</v>
       </c>
       <c r="B31" t="n">
-        <v>142797</v>
+        <v>174008</v>
       </c>
       <c r="C31" t="s">
         <v>293</v>
@@ -5942,7 +5942,7 @@
         <v>64487</v>
       </c>
       <c r="B32" t="n">
-        <v>142798</v>
+        <v>174009</v>
       </c>
       <c r="C32" t="s">
         <v>300</v>
@@ -6078,7 +6078,7 @@
         <v>64487</v>
       </c>
       <c r="B34" t="n">
-        <v>142799</v>
+        <v>174010</v>
       </c>
       <c r="C34" t="s">
         <v>315</v>
@@ -6214,7 +6214,7 @@
         <v>64487</v>
       </c>
       <c r="B36" t="n">
-        <v>142800</v>
+        <v>174011</v>
       </c>
       <c r="C36" t="s">
         <v>333</v>
@@ -6285,7 +6285,7 @@
         <v>64487</v>
       </c>
       <c r="B37" t="n">
-        <v>142801</v>
+        <v>174012</v>
       </c>
       <c r="C37" t="s">
         <v>342</v>
@@ -6356,7 +6356,7 @@
         <v>64487</v>
       </c>
       <c r="B38" t="n">
-        <v>142802</v>
+        <v>174013</v>
       </c>
       <c r="C38" t="s">
         <v>351</v>
@@ -6421,7 +6421,7 @@
         <v>64487</v>
       </c>
       <c r="B39" t="n">
-        <v>142803</v>
+        <v>174014</v>
       </c>
       <c r="C39" t="s">
         <v>358</v>
@@ -6490,7 +6490,7 @@
         <v>64487</v>
       </c>
       <c r="B40" t="n">
-        <v>142804</v>
+        <v>174015</v>
       </c>
       <c r="C40" t="s">
         <v>364</v>
@@ -6555,7 +6555,7 @@
         <v>64487</v>
       </c>
       <c r="B41" t="n">
-        <v>142805</v>
+        <v>174016</v>
       </c>
       <c r="C41" t="s">
         <v>373</v>
@@ -6626,7 +6626,7 @@
         <v>64487</v>
       </c>
       <c r="B42" t="n">
-        <v>142806</v>
+        <v>174017</v>
       </c>
       <c r="C42" t="s">
         <v>382</v>
@@ -6971,7 +6971,7 @@
         <v>64487</v>
       </c>
       <c r="B47" t="n">
-        <v>142807</v>
+        <v>174018</v>
       </c>
       <c r="C47" t="s">
         <v>422</v>
@@ -7036,7 +7036,7 @@
         <v>64487</v>
       </c>
       <c r="B48" t="n">
-        <v>142808</v>
+        <v>174019</v>
       </c>
       <c r="C48" t="s">
         <v>431</v>
@@ -7166,7 +7166,7 @@
         <v>64487</v>
       </c>
       <c r="B50" t="n">
-        <v>142809</v>
+        <v>174020</v>
       </c>
       <c r="C50" t="s">
         <v>444</v>
@@ -7231,7 +7231,7 @@
         <v>64487</v>
       </c>
       <c r="B51" t="n">
-        <v>142810</v>
+        <v>174021</v>
       </c>
       <c r="C51" t="s">
         <v>454</v>
@@ -7373,7 +7373,7 @@
         <v>64487</v>
       </c>
       <c r="B53" t="n">
-        <v>142811</v>
+        <v>174022</v>
       </c>
       <c r="C53" t="s">
         <v>470</v>
@@ -7442,7 +7442,7 @@
         <v>64487</v>
       </c>
       <c r="B54" t="n">
-        <v>142812</v>
+        <v>174023</v>
       </c>
       <c r="C54" t="s">
         <v>479</v>
@@ -7584,7 +7584,7 @@
         <v>64487</v>
       </c>
       <c r="B56" t="n">
-        <v>142813</v>
+        <v>174024</v>
       </c>
       <c r="C56" t="s">
         <v>491</v>
@@ -7655,7 +7655,7 @@
         <v>64487</v>
       </c>
       <c r="B57" t="n">
-        <v>142814</v>
+        <v>174025</v>
       </c>
       <c r="C57" t="s">
         <v>500</v>
@@ -7724,7 +7724,7 @@
         <v>64487</v>
       </c>
       <c r="B58" t="n">
-        <v>142815</v>
+        <v>174026</v>
       </c>
       <c r="C58" t="s">
         <v>507</v>
@@ -7795,7 +7795,7 @@
         <v>64487</v>
       </c>
       <c r="B59" t="n">
-        <v>142816</v>
+        <v>174027</v>
       </c>
       <c r="C59" t="s">
         <v>516</v>
@@ -7860,7 +7860,7 @@
         <v>64487</v>
       </c>
       <c r="B60" t="n">
-        <v>142817</v>
+        <v>174028</v>
       </c>
       <c r="C60" t="s">
         <v>522</v>
@@ -7921,7 +7921,7 @@
         <v>64487</v>
       </c>
       <c r="B61" t="n">
-        <v>142818</v>
+        <v>174029</v>
       </c>
       <c r="C61" t="s">
         <v>531</v>
@@ -7986,7 +7986,7 @@
         <v>64487</v>
       </c>
       <c r="B62" t="n">
-        <v>142819</v>
+        <v>174030</v>
       </c>
       <c r="C62" t="s">
         <v>537</v>
@@ -8122,7 +8122,7 @@
         <v>64487</v>
       </c>
       <c r="B64" t="n">
-        <v>142820</v>
+        <v>174031</v>
       </c>
       <c r="C64" t="s">
         <v>552</v>
@@ -8187,7 +8187,7 @@
         <v>64487</v>
       </c>
       <c r="B65" t="n">
-        <v>142821</v>
+        <v>174032</v>
       </c>
       <c r="C65" t="s">
         <v>558</v>
@@ -8252,7 +8252,7 @@
         <v>64487</v>
       </c>
       <c r="B66" t="n">
-        <v>142822</v>
+        <v>174033</v>
       </c>
       <c r="C66" t="s">
         <v>567</v>
@@ -8323,7 +8323,7 @@
         <v>64487</v>
       </c>
       <c r="B67" t="n">
-        <v>142823</v>
+        <v>174034</v>
       </c>
       <c r="C67" t="s">
         <v>576</v>
@@ -8394,7 +8394,7 @@
         <v>64487</v>
       </c>
       <c r="B68" t="n">
-        <v>142824</v>
+        <v>174035</v>
       </c>
       <c r="C68" t="s">
         <v>582</v>
@@ -8459,7 +8459,7 @@
         <v>64487</v>
       </c>
       <c r="B69" t="n">
-        <v>142825</v>
+        <v>174036</v>
       </c>
       <c r="C69" t="s">
         <v>589</v>
@@ -8524,7 +8524,7 @@
         <v>64487</v>
       </c>
       <c r="B70" t="n">
-        <v>142826</v>
+        <v>174037</v>
       </c>
       <c r="C70" t="s">
         <v>596</v>
@@ -8595,7 +8595,7 @@
         <v>64487</v>
       </c>
       <c r="B71" t="n">
-        <v>142827</v>
+        <v>174038</v>
       </c>
       <c r="C71" t="s">
         <v>602</v>
@@ -8731,7 +8731,7 @@
         <v>64487</v>
       </c>
       <c r="B73" t="n">
-        <v>142828</v>
+        <v>174039</v>
       </c>
       <c r="C73" t="s">
         <v>620</v>
@@ -8861,7 +8861,7 @@
         <v>64487</v>
       </c>
       <c r="B75" t="n">
-        <v>142829</v>
+        <v>174040</v>
       </c>
       <c r="C75" t="s">
         <v>636</v>
@@ -9001,7 +9001,7 @@
         <v>64487</v>
       </c>
       <c r="B77" t="n">
-        <v>142830</v>
+        <v>174041</v>
       </c>
       <c r="C77" t="s">
         <v>651</v>
@@ -9072,7 +9072,7 @@
         <v>64487</v>
       </c>
       <c r="B78" t="n">
-        <v>142831</v>
+        <v>174042</v>
       </c>
       <c r="C78" t="s">
         <v>660</v>
@@ -9137,7 +9137,7 @@
         <v>64487</v>
       </c>
       <c r="B79" t="n">
-        <v>142832</v>
+        <v>174043</v>
       </c>
       <c r="C79" t="s">
         <v>669</v>
@@ -9208,7 +9208,7 @@
         <v>64487</v>
       </c>
       <c r="B80" t="n">
-        <v>142833</v>
+        <v>174044</v>
       </c>
       <c r="C80" t="s">
         <v>676</v>
@@ -9273,7 +9273,7 @@
         <v>64487</v>
       </c>
       <c r="B81" t="n">
-        <v>142834</v>
+        <v>174045</v>
       </c>
       <c r="C81" t="s">
         <v>683</v>
@@ -9415,7 +9415,7 @@
         <v>64487</v>
       </c>
       <c r="B83" t="n">
-        <v>142835</v>
+        <v>174046</v>
       </c>
       <c r="C83" t="s">
         <v>698</v>
@@ -9480,7 +9480,7 @@
         <v>64487</v>
       </c>
       <c r="B84" t="n">
-        <v>142836</v>
+        <v>174047</v>
       </c>
       <c r="C84" t="s">
         <v>707</v>
@@ -9610,7 +9610,7 @@
         <v>64487</v>
       </c>
       <c r="B86" t="n">
-        <v>142837</v>
+        <v>174048</v>
       </c>
       <c r="C86" t="s">
         <v>720</v>
@@ -9744,7 +9744,7 @@
         <v>64487</v>
       </c>
       <c r="B88" t="n">
-        <v>142838</v>
+        <v>174049</v>
       </c>
       <c r="C88" t="s">
         <v>736</v>
@@ -9870,7 +9870,7 @@
         <v>64487</v>
       </c>
       <c r="B90" t="n">
-        <v>142839</v>
+        <v>174050</v>
       </c>
       <c r="C90" t="s">
         <v>752</v>
@@ -10073,7 +10073,7 @@
         <v>64487</v>
       </c>
       <c r="B93" t="n">
-        <v>142840</v>
+        <v>174051</v>
       </c>
       <c r="C93" t="s">
         <v>774</v>
@@ -10418,7 +10418,7 @@
         <v>64487</v>
       </c>
       <c r="B98" t="n">
-        <v>142841</v>
+        <v>174052</v>
       </c>
       <c r="C98" t="s">
         <v>814</v>
@@ -10556,7 +10556,7 @@
         <v>64487</v>
       </c>
       <c r="B100" t="n">
-        <v>142842</v>
+        <v>174053</v>
       </c>
       <c r="C100" t="s">
         <v>832</v>
@@ -10627,7 +10627,7 @@
         <v>64487</v>
       </c>
       <c r="B101" t="n">
-        <v>142843</v>
+        <v>174054</v>
       </c>
       <c r="C101" t="s">
         <v>842</v>
@@ -10698,7 +10698,7 @@
         <v>64487</v>
       </c>
       <c r="B102" t="n">
-        <v>142844</v>
+        <v>174055</v>
       </c>
       <c r="C102" t="s">
         <v>851</v>
@@ -10769,7 +10769,7 @@
         <v>64487</v>
       </c>
       <c r="B103" t="n">
-        <v>142845</v>
+        <v>174056</v>
       </c>
       <c r="C103" t="s">
         <v>857</v>
@@ -10834,7 +10834,7 @@
         <v>64487</v>
       </c>
       <c r="B104" t="n">
-        <v>142846</v>
+        <v>174057</v>
       </c>
       <c r="C104" t="s">
         <v>863</v>
@@ -10903,7 +10903,7 @@
         <v>64487</v>
       </c>
       <c r="B105" t="n">
-        <v>142847</v>
+        <v>174058</v>
       </c>
       <c r="C105" t="s">
         <v>872</v>
@@ -11037,7 +11037,7 @@
         <v>64487</v>
       </c>
       <c r="B107" t="n">
-        <v>142848</v>
+        <v>174059</v>
       </c>
       <c r="C107" t="s">
         <v>887</v>
@@ -11102,7 +11102,7 @@
         <v>64487</v>
       </c>
       <c r="B108" t="n">
-        <v>142849</v>
+        <v>174060</v>
       </c>
       <c r="C108" t="s">
         <v>896</v>
@@ -11171,7 +11171,7 @@
         <v>64487</v>
       </c>
       <c r="B109" t="n">
-        <v>142850</v>
+        <v>174061</v>
       </c>
       <c r="C109" t="s">
         <v>902</v>
@@ -11242,7 +11242,7 @@
         <v>64487</v>
       </c>
       <c r="B110" t="n">
-        <v>142851</v>
+        <v>174062</v>
       </c>
       <c r="C110" t="s">
         <v>911</v>
@@ -11313,7 +11313,7 @@
         <v>64487</v>
       </c>
       <c r="B111" t="n">
-        <v>142852</v>
+        <v>174063</v>
       </c>
       <c r="C111" t="s">
         <v>918</v>
@@ -11384,7 +11384,7 @@
         <v>64487</v>
       </c>
       <c r="B112" t="n">
-        <v>142853</v>
+        <v>174064</v>
       </c>
       <c r="C112" t="s">
         <v>924</v>
@@ -11522,7 +11522,7 @@
         <v>64487</v>
       </c>
       <c r="B114" t="n">
-        <v>142854</v>
+        <v>174065</v>
       </c>
       <c r="C114" t="s">
         <v>940</v>
@@ -11798,7 +11798,7 @@
         <v>64487</v>
       </c>
       <c r="B118" t="n">
-        <v>142855</v>
+        <v>174066</v>
       </c>
       <c r="C118" t="s">
         <v>970</v>
@@ -11859,7 +11859,7 @@
         <v>64487</v>
       </c>
       <c r="B119" t="n">
-        <v>142856</v>
+        <v>174067</v>
       </c>
       <c r="C119" t="s">
         <v>979</v>
@@ -11999,7 +11999,7 @@
         <v>64487</v>
       </c>
       <c r="B121" t="n">
-        <v>142857</v>
+        <v>174068</v>
       </c>
       <c r="C121" t="s">
         <v>996</v>
@@ -12074,7 +12074,7 @@
         <v>64487</v>
       </c>
       <c r="B122" t="n">
-        <v>142858</v>
+        <v>174069</v>
       </c>
       <c r="C122" t="s">
         <v>1005</v>
@@ -12289,7 +12289,7 @@
         <v>64487</v>
       </c>
       <c r="B125" t="n">
-        <v>142859</v>
+        <v>174070</v>
       </c>
       <c r="C125" t="s">
         <v>1025</v>
@@ -12364,7 +12364,7 @@
         <v>64487</v>
       </c>
       <c r="B126" t="n">
-        <v>142860</v>
+        <v>174071</v>
       </c>
       <c r="C126" t="s">
         <v>1031</v>
@@ -12433,7 +12433,7 @@
         <v>64487</v>
       </c>
       <c r="B127" t="n">
-        <v>142861</v>
+        <v>174072</v>
       </c>
       <c r="C127" t="s">
         <v>1040</v>
@@ -12508,7 +12508,7 @@
         <v>64487</v>
       </c>
       <c r="B128" t="n">
-        <v>142862</v>
+        <v>174073</v>
       </c>
       <c r="C128" t="s">
         <v>1046</v>
@@ -12583,7 +12583,7 @@
         <v>64487</v>
       </c>
       <c r="B129" t="n">
-        <v>142863</v>
+        <v>174074</v>
       </c>
       <c r="C129" t="s">
         <v>1055</v>
@@ -12658,7 +12658,7 @@
         <v>64487</v>
       </c>
       <c r="B130" t="n">
-        <v>142864</v>
+        <v>174075</v>
       </c>
       <c r="C130" t="s">
         <v>1061</v>
@@ -12733,7 +12733,7 @@
         <v>64487</v>
       </c>
       <c r="B131" t="n">
-        <v>142865</v>
+        <v>174076</v>
       </c>
       <c r="C131" t="s">
         <v>1067</v>
@@ -12798,7 +12798,7 @@
         <v>64487</v>
       </c>
       <c r="B132" t="n">
-        <v>142866</v>
+        <v>174077</v>
       </c>
       <c r="C132" t="s">
         <v>1076</v>
@@ -12869,7 +12869,7 @@
         <v>64487</v>
       </c>
       <c r="B133" t="n">
-        <v>142867</v>
+        <v>174078</v>
       </c>
       <c r="C133" t="s">
         <v>1082</v>
@@ -13005,7 +13005,7 @@
         <v>64487</v>
       </c>
       <c r="B135" t="n">
-        <v>142868</v>
+        <v>174079</v>
       </c>
       <c r="C135" t="s">
         <v>1094</v>
@@ -13076,7 +13076,7 @@
         <v>64487</v>
       </c>
       <c r="B136" t="n">
-        <v>142869</v>
+        <v>174080</v>
       </c>
       <c r="C136" t="s">
         <v>1100</v>
@@ -13145,7 +13145,7 @@
         <v>64487</v>
       </c>
       <c r="B137" t="n">
-        <v>142870</v>
+        <v>174081</v>
       </c>
       <c r="C137" t="s">
         <v>1109</v>
@@ -13216,7 +13216,7 @@
         <v>64487</v>
       </c>
       <c r="B138" t="n">
-        <v>142871</v>
+        <v>174082</v>
       </c>
       <c r="C138" t="s">
         <v>1118</v>
